--- a/data/trans_orig/PCS12_SP_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>296491</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>269624</v>
+        <v>270090</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>321887</v>
+        <v>320606</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4272128453038495</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3885008538038575</v>
+        <v>0.3891713208629487</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4638063637495433</v>
+        <v>0.4619599739722449</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>398</v>
@@ -765,19 +765,19 @@
         <v>394544</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>366529</v>
+        <v>367882</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>418366</v>
+        <v>419930</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5731728694525272</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5324734957276686</v>
+        <v>0.5344397186245783</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6077801801843957</v>
+        <v>0.6100518282436338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>693</v>
@@ -786,19 +786,19 @@
         <v>691035</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>656513</v>
+        <v>652571</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>728225</v>
+        <v>725606</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4998939873451692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4749206465404092</v>
+        <v>0.4720690649899525</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5267969454686127</v>
+        <v>0.5249028649224469</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>397521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>372125</v>
+        <v>373406</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424388</v>
+        <v>423922</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5727871546961505</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5361936362504566</v>
+        <v>0.5380400260277551</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6114991461961423</v>
+        <v>0.6108286791370513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>298</v>
@@ -836,19 +836,19 @@
         <v>293807</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>269985</v>
+        <v>268421</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>321822</v>
+        <v>320469</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4268271305474728</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3922198198156046</v>
+        <v>0.3899481717563664</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4675265042723316</v>
+        <v>0.4655602813754218</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>686</v>
@@ -857,19 +857,19 @@
         <v>691328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>654138</v>
+        <v>656757</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>725850</v>
+        <v>729792</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5001060126548308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4732030545313879</v>
+        <v>0.4750971350775531</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5250793534595909</v>
+        <v>0.5279309350100474</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>381168</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>351309</v>
+        <v>349059</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>413971</v>
+        <v>408185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3963073881144425</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3652617856863412</v>
+        <v>0.362922784528487</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.430412610378853</v>
+        <v>0.4243968256080003</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>542</v>
@@ -982,19 +982,19 @@
         <v>583514</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>552775</v>
+        <v>552436</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>615306</v>
+        <v>614222</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6025592472568067</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5708172055996193</v>
+        <v>0.5704668209019174</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6353886885522744</v>
+        <v>0.6342694566688986</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>909</v>
@@ -1003,19 +1003,19 @@
         <v>964683</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>919515</v>
+        <v>920144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1008272</v>
+        <v>1009231</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4997855698614878</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4763850501938747</v>
+        <v>0.4767110439077685</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5223687398499501</v>
+        <v>0.5228651629892596</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>580632</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>547829</v>
+        <v>553615</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>610491</v>
+        <v>612741</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6036926118855576</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.569587389621147</v>
+        <v>0.5756031743919994</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6347382143136586</v>
+        <v>0.6370772154715129</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>366</v>
@@ -1053,19 +1053,19 @@
         <v>384879</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>353087</v>
+        <v>354171</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>415618</v>
+        <v>415957</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3974407527431933</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3646113114477262</v>
+        <v>0.3657305433311015</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4291827944003807</v>
+        <v>0.4295331790980828</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>895</v>
@@ -1074,19 +1074,19 @@
         <v>965510</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>921921</v>
+        <v>920962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1010678</v>
+        <v>1010049</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5002144301385122</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4776312601500496</v>
+        <v>0.4771348370107404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5236149498061252</v>
+        <v>0.5232889560922315</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>317133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>287843</v>
+        <v>291758</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>341496</v>
+        <v>346625</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4673963333171334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4242285675023507</v>
+        <v>0.4299981050708911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5033036515247961</v>
+        <v>0.5108633323722128</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>395</v>
@@ -1199,19 +1199,19 @@
         <v>388475</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>361696</v>
+        <v>363591</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>414438</v>
+        <v>413912</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.568078313130725</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.52891848670862</v>
+        <v>0.5316892268736344</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6060448272476333</v>
+        <v>0.6052745592340664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>695</v>
@@ -1220,19 +1220,19 @@
         <v>705608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>669333</v>
+        <v>668426</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>742554</v>
+        <v>741864</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5179343535528126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4913076865737019</v>
+        <v>0.4906420869420757</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5450539037286531</v>
+        <v>0.5445473603787216</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>361376</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>337013</v>
+        <v>331884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>390666</v>
+        <v>386751</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5326036666828666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4966963484752042</v>
+        <v>0.4891366676277873</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5757714324976495</v>
+        <v>0.5700018949291089</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>301</v>
@@ -1270,19 +1270,19 @@
         <v>295366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>269403</v>
+        <v>269929</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>322145</v>
+        <v>320250</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.431921686869275</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3939551727523667</v>
+        <v>0.3947254407659337</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.47108151329138</v>
+        <v>0.4683107731263656</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>642</v>
@@ -1291,19 +1291,19 @@
         <v>656742</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619796</v>
+        <v>620486</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>693017</v>
+        <v>693924</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4820656464471874</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4549460962713468</v>
+        <v>0.4554526396212784</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5086923134262981</v>
+        <v>0.5093579130579243</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>400150</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>370234</v>
+        <v>369661</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>430687</v>
+        <v>429408</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.424687674152397</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3929374467799682</v>
+        <v>0.3923286731353332</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4570971141692908</v>
+        <v>0.4557392624478094</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>534</v>
@@ -1416,19 +1416,19 @@
         <v>561413</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>529242</v>
+        <v>530388</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>593640</v>
+        <v>592460</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5405417375396683</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5095661672761794</v>
+        <v>0.5106704291025078</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5715701345099412</v>
+        <v>0.5704341312816635</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>961</v>
@@ -1437,19 +1437,19 @@
         <v>961563</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>917315</v>
+        <v>914590</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1006240</v>
+        <v>1003878</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4854335088808218</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4630954130032695</v>
+        <v>0.4617195260062864</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5079881759848567</v>
+        <v>0.5067955349505647</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>542072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>511535</v>
+        <v>512814</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>571988</v>
+        <v>572561</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5753123258476029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5429028858307094</v>
+        <v>0.5442607375521907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6070625532200319</v>
+        <v>0.607671326864667</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>463</v>
@@ -1487,19 +1487,19 @@
         <v>477199</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>444972</v>
+        <v>446152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>509370</v>
+        <v>508224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4594582624603318</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4284298654900587</v>
+        <v>0.4295658687183362</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4904338327238203</v>
+        <v>0.489329570897492</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1030</v>
@@ -1508,19 +1508,19 @@
         <v>1019271</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>974594</v>
+        <v>976956</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1063519</v>
+        <v>1066244</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5145664911191782</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4920118240151434</v>
+        <v>0.4932044650494353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5369045869967304</v>
+        <v>0.5382804739937135</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1394942</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1341965</v>
+        <v>1336796</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1458655</v>
+        <v>1449845</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4257358970184624</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4095674504047762</v>
+        <v>0.407989781229815</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4451812457700149</v>
+        <v>0.4424922896567671</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1869</v>
@@ -1633,19 +1633,19 @@
         <v>1927947</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1867012</v>
+        <v>1871572</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1984335</v>
+        <v>1987844</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5705339626011435</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5525015884179793</v>
+        <v>0.5538512447247268</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5872208854678156</v>
+        <v>0.5882591944745356</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3258</v>
@@ -1654,19 +1654,19 @@
         <v>3322889</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3239001</v>
+        <v>3243155</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3400042</v>
+        <v>3404198</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4992515672809898</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4866476978769131</v>
+        <v>0.4872718249871985</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5108434802487847</v>
+        <v>0.5114678552534737</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1881601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1817888</v>
+        <v>1826698</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1934578</v>
+        <v>1939747</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5742641029815375</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5548187542299851</v>
+        <v>0.5575077103432329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5904325495952237</v>
+        <v>0.592010218770185</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1428</v>
@@ -1704,19 +1704,19 @@
         <v>1451250</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1394862</v>
+        <v>1391353</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1512185</v>
+        <v>1507625</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4294660373988565</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4127791145321846</v>
+        <v>0.4117408055254648</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4474984115820209</v>
+        <v>0.4461487552752735</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3253</v>
@@ -1725,19 +1725,19 @@
         <v>3332852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3255699</v>
+        <v>3251543</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3416740</v>
+        <v>3412586</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5007484327190102</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4891565197512151</v>
+        <v>0.4885321447465261</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5133523021230868</v>
+        <v>0.5127281750128015</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>318545</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>293270</v>
+        <v>293546</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>344411</v>
+        <v>346739</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4528199349527999</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4168905439239334</v>
+        <v>0.4172840376536356</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4895888730744588</v>
+        <v>0.4928986598241326</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>344</v>
@@ -2090,19 +2090,19 @@
         <v>371374</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>343483</v>
+        <v>345351</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>399877</v>
+        <v>398014</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5327791141949768</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4927661504948674</v>
+        <v>0.4954462944972867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5736698935479247</v>
+        <v>0.570997276244071</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>644</v>
@@ -2111,19 +2111,19 @@
         <v>689918</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>648737</v>
+        <v>655455</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>726734</v>
+        <v>732380</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4926162866668192</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4632120964413753</v>
+        <v>0.4680089556022994</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5189030334895067</v>
+        <v>0.5229348010702899</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>384924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>359058</v>
+        <v>356730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>410199</v>
+        <v>409923</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5471800650472001</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5104111269255412</v>
+        <v>0.5071013401758675</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5831094560760666</v>
+        <v>0.5827159623463644</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>306</v>
@@ -2161,19 +2161,19 @@
         <v>325676</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297173</v>
+        <v>299036</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>353567</v>
+        <v>351699</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4672208858050232</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4263301064520755</v>
+        <v>0.429002723755929</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5072338495051326</v>
+        <v>0.5045537055027134</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>680</v>
@@ -2182,19 +2182,19 @@
         <v>710601</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>673785</v>
+        <v>668139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>751782</v>
+        <v>745064</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5073837133331808</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4810969665104932</v>
+        <v>0.47706519892971</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5367879035586247</v>
+        <v>0.5319910443977006</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>448861</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>416807</v>
+        <v>415495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>483677</v>
+        <v>484563</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4409473651127325</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.409458025627614</v>
+        <v>0.4081699256465566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4751492347762813</v>
+        <v>0.4760194428208067</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>518</v>
@@ -2307,19 +2307,19 @@
         <v>570563</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>537931</v>
+        <v>537997</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>604804</v>
+        <v>604063</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5527721729438932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5211584944988228</v>
+        <v>0.5212220088200988</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5859461374587516</v>
+        <v>0.5852282202765042</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>931</v>
@@ -2328,19 +2328,19 @@
         <v>1019424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>973940</v>
+        <v>971969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1063902</v>
+        <v>1061113</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4972480456493075</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.475062232006878</v>
+        <v>0.4741006960973178</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5189435923825019</v>
+        <v>0.5175828173776372</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>569086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>534270</v>
+        <v>533384</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>601140</v>
+        <v>602452</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5590526348872675</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5248507652237187</v>
+        <v>0.523980557179193</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5905419743723859</v>
+        <v>0.5918300743534434</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>422</v>
@@ -2378,19 +2378,19 @@
         <v>461621</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>427380</v>
+        <v>428121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>494253</v>
+        <v>494187</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4472278270561068</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4140538625412485</v>
+        <v>0.4147717797234959</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4788415055011773</v>
+        <v>0.4787779911799014</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>945</v>
@@ -2399,19 +2399,19 @@
         <v>1030707</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>986229</v>
+        <v>989018</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1076191</v>
+        <v>1078162</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5027519543506925</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4810564076174981</v>
+        <v>0.4824171826223627</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.524937767993122</v>
+        <v>0.5258993039026821</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>309642</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>279023</v>
+        <v>281464</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>337056</v>
+        <v>337015</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4087015510230558</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3682872454468378</v>
+        <v>0.3715097837101813</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4448857236560719</v>
+        <v>0.4448314095381707</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>368</v>
@@ -2524,19 +2524,19 @@
         <v>409071</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>380099</v>
+        <v>379711</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>437189</v>
+        <v>439773</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5263575972264262</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4890783026040711</v>
+        <v>0.4885790670214574</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5625367876167021</v>
+        <v>0.5658619426523468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>641</v>
@@ -2545,19 +2545,19 @@
         <v>718713</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>679825</v>
+        <v>679983</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>765361</v>
+        <v>762008</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4682789424893021</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4429412369521408</v>
+        <v>0.4430443605582819</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.498672284436774</v>
+        <v>0.4964878754478553</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>447981</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>420567</v>
+        <v>420608</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>478600</v>
+        <v>476159</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5912984489769443</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5551142763439281</v>
+        <v>0.5551685904618295</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6317127545531621</v>
+        <v>0.6284902162898188</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>337</v>
@@ -2595,19 +2595,19 @@
         <v>368103</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>339985</v>
+        <v>337401</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>397075</v>
+        <v>397463</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4736424027735738</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4374632123832979</v>
+        <v>0.4341380573476532</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5109216973959289</v>
+        <v>0.5114209329785425</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>753</v>
@@ -2616,19 +2616,19 @@
         <v>816084</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>769436</v>
+        <v>772789</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>854972</v>
+        <v>854814</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5317210575106979</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5013277155632261</v>
+        <v>0.5035121245521447</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5570587630478592</v>
+        <v>0.5569556394417181</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>430384</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>399543</v>
+        <v>400183</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>462935</v>
+        <v>458873</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4541167603232651</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4215750745950276</v>
+        <v>0.4222499171384665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4884627345076571</v>
+        <v>0.4841762231099027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>550</v>
@@ -2741,19 +2741,19 @@
         <v>580746</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>548721</v>
+        <v>551301</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>614116</v>
+        <v>613180</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5520921620811318</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.521646960221993</v>
+        <v>0.5240997492780315</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5838157563223448</v>
+        <v>0.5829256405560554</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>951</v>
@@ -2762,19 +2762,19 @@
         <v>1011130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>968738</v>
+        <v>967132</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1056240</v>
+        <v>1061111</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5056562395785287</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.484456085083841</v>
+        <v>0.4836532324507963</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.528214844422666</v>
+        <v>0.5306511661435007</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>517355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>484804</v>
+        <v>488866</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>548196</v>
+        <v>547556</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5458832396767348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5115372654923429</v>
+        <v>0.5158237768900974</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5784249254049724</v>
+        <v>0.5777500828615336</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>453</v>
@@ -2812,19 +2812,19 @@
         <v>471155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>437785</v>
+        <v>438721</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>503180</v>
+        <v>500600</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4479078379188682</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4161842436776553</v>
+        <v>0.4170743594439446</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.478353039778007</v>
+        <v>0.4759002507219686</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>962</v>
@@ -2833,19 +2833,19 @@
         <v>988510</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>943400</v>
+        <v>938529</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1030902</v>
+        <v>1032508</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4943437604214713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4717851555773341</v>
+        <v>0.4693488338564994</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.515543914916159</v>
+        <v>0.5163467675492037</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1507432</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1445232</v>
+        <v>1448023</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1568969</v>
+        <v>1569492</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4398976793016143</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4217463439527973</v>
+        <v>0.4225608841561045</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4578554008318809</v>
+        <v>0.458007807657544</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1780</v>
@@ -2958,19 +2958,19 @@
         <v>1931754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1865313</v>
+        <v>1866993</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1989355</v>
+        <v>1992996</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5428854018060206</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.524213308600714</v>
+        <v>0.5246853913671619</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5590731126531147</v>
+        <v>0.5600963739409184</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3167</v>
@@ -2979,19 +2979,19 @@
         <v>3439186</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3354090</v>
+        <v>3352619</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3530737</v>
+        <v>3522678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4923611774970886</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4801786269210465</v>
+        <v>0.4799680084678725</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5054677359646127</v>
+        <v>0.504313992766655</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1919347</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1857810</v>
+        <v>1857287</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1981547</v>
+        <v>1978756</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5601023206983856</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5421445991681192</v>
+        <v>0.5419921923424561</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5782536560472027</v>
+        <v>0.5774391158438954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1518</v>
@@ -3029,19 +3029,19 @@
         <v>1626555</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1568954</v>
+        <v>1565313</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1692996</v>
+        <v>1691316</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4571145981939794</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4409268873468855</v>
+        <v>0.4399036260590817</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.475786691399286</v>
+        <v>0.4753146086328383</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3340</v>
@@ -3050,19 +3050,19 @@
         <v>3545902</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3454351</v>
+        <v>3462410</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3630998</v>
+        <v>3632469</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5076388225029114</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4945322640353871</v>
+        <v>0.4956860072333449</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5198213730789534</v>
+        <v>0.5200319915321275</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>292006</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>265911</v>
+        <v>268129</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>318173</v>
+        <v>318900</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4327301255417808</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.394058959943035</v>
+        <v>0.397345881605988</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4715074974483449</v>
+        <v>0.4725838437358776</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>326</v>
@@ -3415,19 +3415,19 @@
         <v>346253</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>320890</v>
+        <v>317358</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>371979</v>
+        <v>370060</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5146154187932724</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4769191028083834</v>
+        <v>0.4716706890758568</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5528501236658465</v>
+        <v>0.5499982375606186</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>608</v>
@@ -3436,19 +3436,19 @@
         <v>638260</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>601679</v>
+        <v>601644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>675344</v>
+        <v>677265</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4736131949291718</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4464691189667477</v>
+        <v>0.4464428004786621</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5011314699754156</v>
+        <v>0.5025568948744715</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>382794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>356627</v>
+        <v>355900</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>408889</v>
+        <v>406671</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5672698744582192</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.528492502551655</v>
+        <v>0.5274161562641223</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6059410400569649</v>
+        <v>0.6026541183940116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>340</v>
@@ -3486,19 +3486,19 @@
         <v>326586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300860</v>
+        <v>302779</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>351949</v>
+        <v>355481</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4853845812067276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4471498763341534</v>
+        <v>0.4500017624393813</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5230808971916165</v>
+        <v>0.5283293109241431</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>710</v>
@@ -3507,19 +3507,19 @@
         <v>709379</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>672295</v>
+        <v>670374</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745960</v>
+        <v>745995</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5263868050708282</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4988685300245844</v>
+        <v>0.4974431051255284</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5535308810332523</v>
+        <v>0.5535571995213379</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>376822</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>343180</v>
+        <v>346637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>410168</v>
+        <v>409929</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3685545253734721</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.33565100565098</v>
+        <v>0.3390323382440213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.401169539063458</v>
+        <v>0.4009353191972281</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>437</v>
@@ -3632,19 +3632,19 @@
         <v>488347</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>453584</v>
+        <v>451892</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>520734</v>
+        <v>521986</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4682532344509634</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4349199052758441</v>
+        <v>0.4332974568540498</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4993071357559913</v>
+        <v>0.5005073080023019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>793</v>
@@ -3653,19 +3653,19 @@
         <v>865169</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>815864</v>
+        <v>819734</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>910050</v>
+        <v>912712</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4188982358113266</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3950256921272071</v>
+        <v>0.3968996713878057</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4406287093523871</v>
+        <v>0.4419175084430233</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>645609</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>612263</v>
+        <v>612502</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>679251</v>
+        <v>675794</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.631445474626528</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5988304609365418</v>
+        <v>0.5990646808027719</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.66434899434902</v>
+        <v>0.6609676617559787</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>540</v>
@@ -3703,19 +3703,19 @@
         <v>554566</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>522179</v>
+        <v>520927</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>589329</v>
+        <v>591021</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5317467655490365</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5006928642440086</v>
+        <v>0.4994926919976977</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5650800947241559</v>
+        <v>0.5667025431459501</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1135</v>
@@ -3724,19 +3724,19 @@
         <v>1200175</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1155294</v>
+        <v>1152632</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1249480</v>
+        <v>1245610</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5811017641886734</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.559371290647613</v>
+        <v>0.5580824915569764</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.604974307872793</v>
+        <v>0.6031003286121943</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>307217</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>281050</v>
+        <v>278083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>337572</v>
+        <v>333491</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4044708773042611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3700210909317026</v>
+        <v>0.3661144263915628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4444357716371845</v>
+        <v>0.4390622453452815</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>345</v>
@@ -3849,19 +3849,19 @@
         <v>384824</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>356396</v>
+        <v>355199</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>413400</v>
+        <v>413298</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.490214701466862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4540011934138111</v>
+        <v>0.4524768855699839</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5266166618545541</v>
+        <v>0.5264868158725966</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>629</v>
@@ -3870,19 +3870,19 @@
         <v>692041</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>654896</v>
+        <v>652841</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>734454</v>
+        <v>734548</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4480494359407444</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4240010000693344</v>
+        <v>0.4226706394502718</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4755089776182131</v>
+        <v>0.4755701521656553</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>452335</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>421980</v>
+        <v>426061</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>478502</v>
+        <v>481469</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5955291226957389</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5555642283628159</v>
+        <v>0.5609377546547186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6299789090682975</v>
+        <v>0.6338855736084372</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>391</v>
@@ -3920,19 +3920,19 @@
         <v>400187</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>371611</v>
+        <v>371713</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>428615</v>
+        <v>429812</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5097852985331379</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4733833381454458</v>
+        <v>0.4735131841274033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5459988065861889</v>
+        <v>0.547523114430016</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>803</v>
@@ -3941,19 +3941,19 @@
         <v>852522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>810109</v>
+        <v>810015</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>889667</v>
+        <v>891722</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5519505640592556</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5244910223817868</v>
+        <v>0.5244298478343444</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5759989999306654</v>
+        <v>0.5773293605497281</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>345969</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>316088</v>
+        <v>316299</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>373821</v>
+        <v>375787</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3690069252579443</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.337136837721332</v>
+        <v>0.3373620123072577</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3987140365196179</v>
+        <v>0.400811272843683</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>413</v>
@@ -4066,19 +4066,19 @@
         <v>475837</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>440283</v>
+        <v>441932</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>507246</v>
+        <v>507902</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4558792509184596</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4218165836710218</v>
+        <v>0.4233958507586147</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4859705806307759</v>
+        <v>0.4865989636235125</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>759</v>
@@ -4087,19 +4087,19 @@
         <v>821806</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>783839</v>
+        <v>775043</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>868383</v>
+        <v>867207</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.414771526577714</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3956093495241531</v>
+        <v>0.3911699289322346</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4382792776926155</v>
+        <v>0.4376859109795016</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>591598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>563746</v>
+        <v>561780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>621479</v>
+        <v>621268</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6309930747420558</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.601285963480382</v>
+        <v>0.5991887271563171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.662863162278668</v>
+        <v>0.6626379876927424</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>546</v>
@@ -4137,19 +4137,19 @@
         <v>567942</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>536533</v>
+        <v>535877</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>603496</v>
+        <v>601847</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5441207490815404</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5140294193692243</v>
+        <v>0.5134010363764875</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5781834163289787</v>
+        <v>0.5766041492413853</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1132</v>
@@ -4158,19 +4158,19 @@
         <v>1159540</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1112963</v>
+        <v>1114139</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1197507</v>
+        <v>1206303</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.585228473422286</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5617207223073845</v>
+        <v>0.5623140890204985</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6043906504758469</v>
+        <v>0.6088300710677653</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1322013</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1268098</v>
+        <v>1255147</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1386257</v>
+        <v>1378417</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3894746405798993</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3735907349036597</v>
+        <v>0.3697753228084997</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4084013041644168</v>
+        <v>0.406091569091004</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1521</v>
@@ -4283,19 +4283,19 @@
         <v>1695262</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1633430</v>
+        <v>1635818</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1762345</v>
+        <v>1761865</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.478273873143024</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.460829771090308</v>
+        <v>0.4615034713348286</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4971996481003389</v>
+        <v>0.4970641357587558</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2789</v>
@@ -4304,19 +4304,19 @@
         <v>3017275</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2920616</v>
+        <v>2931046</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3094046</v>
+        <v>3095063</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4348352822758739</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4209052520940043</v>
+        <v>0.4224083274331116</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4458991768283715</v>
+        <v>0.4460456948658646</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2072337</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2008093</v>
+        <v>2015933</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2126252</v>
+        <v>2139203</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6105253594201008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5915986958355831</v>
+        <v>0.5939084309089959</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6264092650963403</v>
+        <v>0.6302246771915002</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1817</v>
@@ -4354,19 +4354,19 @@
         <v>1849280</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1782197</v>
+        <v>1782677</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1911112</v>
+        <v>1908724</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5217261268569759</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5028003518996611</v>
+        <v>0.5029358642412443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5391702289096919</v>
+        <v>0.5384965286651715</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3780</v>
@@ -4375,19 +4375,19 @@
         <v>3921617</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3844846</v>
+        <v>3843829</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4018276</v>
+        <v>4007846</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5651647177241261</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5541008231716285</v>
+        <v>0.5539543051341353</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5790947479059956</v>
+        <v>0.5775916725668884</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>346343</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>316607</v>
+        <v>316798</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>373741</v>
+        <v>375544</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5057796814914207</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4623552298971573</v>
+        <v>0.4626340921736359</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5457891595734701</v>
+        <v>0.5484233781540372</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>744</v>
@@ -4740,19 +4740,19 @@
         <v>389284</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>366915</v>
+        <v>365098</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>411663</v>
+        <v>410466</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5354435906767822</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5046757624918532</v>
+        <v>0.502176750938012</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.566224477400898</v>
+        <v>0.5645778389957221</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1155</v>
@@ -4761,19 +4761,19 @@
         <v>735627</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>700944</v>
+        <v>699077</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>774682</v>
+        <v>775200</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5210556010405493</v>
+        <v>0.5210556010405494</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4964885668884831</v>
+        <v>0.4951667555592755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5487189042103368</v>
+        <v>0.5490855754930363</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>338428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>311030</v>
+        <v>309227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>368164</v>
+        <v>367973</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4942203185085793</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4542108404265299</v>
+        <v>0.4515766218459624</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.537644770102843</v>
+        <v>0.5373659078263641</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>483</v>
@@ -4811,19 +4811,19 @@
         <v>337747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>315368</v>
+        <v>316565</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360116</v>
+        <v>361933</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4645564093232178</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4337755225991022</v>
+        <v>0.4354221610042779</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4953242375081469</v>
+        <v>0.4978232490619882</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>796</v>
@@ -4832,19 +4832,19 @@
         <v>676175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>637120</v>
+        <v>636602</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>710858</v>
+        <v>712725</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4789443989594507</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4512810957896632</v>
+        <v>0.4509144245069636</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5035114331115169</v>
+        <v>0.5048332444407244</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>384901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>351986</v>
+        <v>350627</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>419087</v>
+        <v>416641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3687390360548439</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3372055501664015</v>
+        <v>0.3359036017414652</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4014893223288425</v>
+        <v>0.399145987569029</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>841</v>
@@ -4957,19 +4957,19 @@
         <v>531684</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>502654</v>
+        <v>500729</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>563160</v>
+        <v>561209</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.499182014879015</v>
+        <v>0.4991820148790151</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4719267469961296</v>
+        <v>0.4701192707774863</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5287338774843897</v>
+        <v>0.526902228872218</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1248</v>
@@ -4978,19 +4978,19 @@
         <v>916586</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>865406</v>
+        <v>873470</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>959775</v>
+        <v>967501</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4346186379808652</v>
+        <v>0.4346186379808651</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4103506716489205</v>
+        <v>0.4141741858888178</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4550978387153995</v>
+        <v>0.4587610034062695</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>658930</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>624744</v>
+        <v>627190</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>691845</v>
+        <v>693204</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6312609639451561</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5985106776711565</v>
+        <v>0.6008540124309707</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.662794449833598</v>
+        <v>0.6640963982585349</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>665</v>
@@ -5028,19 +5028,19 @@
         <v>533427</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>501951</v>
+        <v>503902</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562457</v>
+        <v>564382</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.500817985120985</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4712661225156102</v>
+        <v>0.473097771127782</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5280732530038705</v>
+        <v>0.5298807292225138</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1217</v>
@@ -5049,19 +5049,19 @@
         <v>1192357</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1149168</v>
+        <v>1141442</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1243537</v>
+        <v>1235473</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5653813620191349</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5449021612846011</v>
+        <v>0.5412389965937309</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5896493283510799</v>
+        <v>0.5858258141111823</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>362673</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>333329</v>
+        <v>331694</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>397307</v>
+        <v>393269</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4531455307008206</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4164812094113112</v>
+        <v>0.4144392752193579</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4964198372109305</v>
+        <v>0.4913737579727082</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>610</v>
@@ -5174,19 +5174,19 @@
         <v>420058</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>392967</v>
+        <v>394741</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>446845</v>
+        <v>447357</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5183319896077291</v>
+        <v>0.5183319896077292</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4849036629994557</v>
+        <v>0.4870924866120495</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5513861104357395</v>
+        <v>0.5520185594805898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>959</v>
@@ -5195,19 +5195,19 @@
         <v>782731</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>738258</v>
+        <v>745556</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>825853</v>
+        <v>827294</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4859422758877412</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4583323002965529</v>
+        <v>0.4628632379510653</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5127135344199931</v>
+        <v>0.513608345601697</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>437672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>403038</v>
+        <v>407076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467016</v>
+        <v>468651</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5468544692991792</v>
+        <v>0.5468544692991794</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5035801627890697</v>
+        <v>0.5086262420272921</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5835187905886888</v>
+        <v>0.5855607247806421</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>434</v>
@@ -5245,19 +5245,19 @@
         <v>390345</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>363558</v>
+        <v>363046</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>417436</v>
+        <v>415662</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.481668010392271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4486138895642607</v>
+        <v>0.4479814405194102</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5150963370005444</v>
+        <v>0.5129075133879505</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>759</v>
@@ -5266,19 +5266,19 @@
         <v>828018</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>784896</v>
+        <v>783455</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>872491</v>
+        <v>865193</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5140577241122587</v>
+        <v>0.5140577241122588</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4872864655800065</v>
+        <v>0.4863916543983029</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.541667699703447</v>
+        <v>0.5371367620489348</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>504639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>473278</v>
+        <v>467928</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>538741</v>
+        <v>537472</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5117238107350006</v>
+        <v>0.5117238107350007</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4799227736175553</v>
+        <v>0.4744977125417</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.546304547976183</v>
+        <v>0.5450180741696333</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>976</v>
@@ -5391,19 +5391,19 @@
         <v>625950</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>596302</v>
+        <v>596507</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>654902</v>
+        <v>655983</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5623571978590814</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5357214829698941</v>
+        <v>0.5359055362394668</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5883680258762386</v>
+        <v>0.589339468335457</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1545</v>
@@ -5412,19 +5412,19 @@
         <v>1130589</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1082295</v>
+        <v>1084703</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1173689</v>
+        <v>1176286</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.538571244916395</v>
+        <v>0.5385712449163951</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5155659782794512</v>
+        <v>0.5167129899421951</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5591025357182456</v>
+        <v>0.5603395475228262</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>481516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>447414</v>
+        <v>448683</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>512877</v>
+        <v>518227</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4882761892649993</v>
+        <v>0.4882761892649994</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4536954520238171</v>
+        <v>0.4549819258303672</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5200772263824448</v>
+        <v>0.5255022874583001</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>578</v>
@@ -5462,19 +5462,19 @@
         <v>487132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>458180</v>
+        <v>457099</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>516780</v>
+        <v>516575</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4376428021409184</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4116319741237615</v>
+        <v>0.4106605316645429</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4642785170301059</v>
+        <v>0.4640944637605332</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1010</v>
@@ -5483,19 +5483,19 @@
         <v>968648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>925548</v>
+        <v>922951</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1016942</v>
+        <v>1014534</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.461428755083605</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4408974642817546</v>
+        <v>0.4396604524771737</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.484434021720549</v>
+        <v>0.4832870100578049</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1598557</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1535266</v>
+        <v>1533830</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1663171</v>
+        <v>1665119</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4547680896157147</v>
+        <v>0.4547680896157148</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4367627928679932</v>
+        <v>0.4363542408794456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4731500283535194</v>
+        <v>0.4737041806728017</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3171</v>
@@ -5608,19 +5608,19 @@
         <v>1966976</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1912668</v>
+        <v>1914342</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2022664</v>
+        <v>2028430</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5293792450541746</v>
+        <v>0.5293792450541744</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5147631133909514</v>
+        <v>0.5152136935730511</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5443667827508027</v>
+        <v>0.5459186385306525</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4907</v>
@@ -5629,19 +5629,19 @@
         <v>3565533</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3482738</v>
+        <v>3474622</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3649231</v>
+        <v>3651505</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.493108237457962</v>
+        <v>0.4931082374579619</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4816579313400714</v>
+        <v>0.4805354574171734</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5046836766909504</v>
+        <v>0.5049980755412307</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1916546</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1851932</v>
+        <v>1849984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1979837</v>
+        <v>1981273</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5452319103842851</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5268499716464805</v>
+        <v>0.5262958193271982</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5632372071320069</v>
+        <v>0.5636457591205546</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2160</v>
@@ -5679,19 +5679,19 @@
         <v>1748651</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1692963</v>
+        <v>1687197</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1802959</v>
+        <v>1801285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4706207549458254</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4556332172491973</v>
+        <v>0.4540813614693476</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4852368866090488</v>
+        <v>0.4847863064269486</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3782</v>
@@ -5700,19 +5700,19 @@
         <v>3665197</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3581499</v>
+        <v>3579225</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3747992</v>
+        <v>3756108</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.506891762542038</v>
+        <v>0.5068917625420379</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4953163233090496</v>
+        <v>0.4950019244587693</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5183420686599286</v>
+        <v>0.5194645425828266</v>
       </c>
     </row>
     <row r="18">
